--- a/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 8,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,87; 11,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,27; 9,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 9,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,42; 246,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,81; 298,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,45; 290,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,81; 175,31</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>330,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,1%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 4,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 5,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 5,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>158,36; 642,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,1; 233,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>123,6; 378,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,36; 195,48</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>385,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,78%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 3,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 3,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,68; 286,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,2; 282,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,13; 2150,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; 252,74</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>201,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>221,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,57%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 5,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 6,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,77; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 5,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,11; 288,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>114,72; 249,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>148,04; 313,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,5; 167,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,03</t>
+          <t>3,34; 8,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,81; 175,31</t>
+          <t>38,27; 176,37</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118,1%</t>
+          <t>124,15%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,11</t>
+          <t>1,55; 4,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,36; 195,48</t>
+          <t>52,03; 230,5</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>73,0%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,42</t>
+          <t>-0,14; 3,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 252,74</t>
+          <t>-11,48; 247,75</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>117,57%</t>
+          <t>121,32%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,14</t>
+          <t>2,5; 5,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>73,5; 167,3</t>
+          <t>69,98; 197,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,07</t>
+          <t>3,9; 7,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,97</t>
+          <t>6,6; 11,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,36</t>
+          <t>4,59; 9,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,93</t>
+          <t>3,49; 8,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,42; 246,23</t>
+          <t>74,01; 255,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>101,81; 298,42</t>
+          <t>99,76; 276,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,45; 290,15</t>
+          <t>89,44; 309,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,27; 176,37</t>
+          <t>38,29; 184,22</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,64</t>
+          <t>2,33; 4,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,55</t>
+          <t>1,79; 4,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,67</t>
+          <t>3,06; 5,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,92</t>
+          <t>1,49; 4,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>158,36; 642,8</t>
+          <t>161,31; 618,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,1; 233,1</t>
+          <t>58,36; 228,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>123,6; 378,04</t>
+          <t>117,13; 362,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,03; 230,5</t>
+          <t>48,99; 235,18</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,69</t>
+          <t>-0,41; 3,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,17</t>
+          <t>-2,1; 2,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,79</t>
+          <t>0,73; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,31</t>
+          <t>-0,21; 3,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 286,96</t>
+          <t>-19,97; 295,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,2; 282,99</t>
+          <t>-64,26; 272,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,13; 2150,75</t>
+          <t>16,47; 1792,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 247,75</t>
+          <t>-13,6; 224,66</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,17</t>
+          <t>3,32; 5,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,5</t>
+          <t>4,11; 6,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 5,82</t>
+          <t>3,78; 5,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,17</t>
+          <t>2,62; 5,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>125,11; 288,95</t>
+          <t>130,75; 301,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>114,72; 249,78</t>
+          <t>110,43; 241,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>148,04; 313,66</t>
+          <t>145,74; 329,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,98; 197,08</t>
+          <t>74,03; 187,9</t>
         </is>
       </c>
     </row>
